--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2291995.31107339</v>
+        <v>2286273.699105505</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>288.1487663488469</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>54.33149515919779</v>
+        <v>153.055538822593</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>344.4521598640767</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>15.14483238681376</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>28.11374845278275</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>99.66075074687581</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>203.6154403134052</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>76.86692178786525</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>100.5892244534693</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>17.68532773870681</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710083</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634817</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>119.1061955452781</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.3208278811401</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>71.67037196991713</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.8684410387791</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>126.0955237083901</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,16 +2295,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.4425172951286</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>145.8745160491646</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>54.26003672910142</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,10 +3204,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>74.75724224607742</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>79.49505480544802</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>7.730549048947416</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3559,7 +3559,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>155.6587118022419</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,13 +3717,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>126.5660981224325</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>98.7649239448572</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1859.412473230863</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.353113282533</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X2" t="n">
-        <v>1859.412473230863</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>1859.412473230863</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2259.828822106974</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>2259.828822106974</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>2259.828822106974</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E4" t="n">
-        <v>2259.828822106974</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="F4" t="n">
-        <v>2259.828822106974</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="G4" t="n">
-        <v>2259.828822106974</v>
+        <v>208.54453618662</v>
       </c>
       <c r="H4" t="n">
-        <v>2204.94852396637</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2259.828822106974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2259.828822106974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2259.828822106974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>2259.828822106974</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>2259.828822106974</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.48357412947</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C5" t="n">
-        <v>1293.521057189058</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>1293.521057189058</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1293.521057189058</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>882.5351523994505</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4652,37 +4652,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>551.8181649141598</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>1568.12097575261</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>824.0670245476149</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>413.0811197580073</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.080593817592</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.080593817592</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.614835556512</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1328.4755035807</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4901,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="C10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="D10" t="n">
-        <v>484.4236418782189</v>
+        <v>548.5954256477205</v>
       </c>
       <c r="E10" t="n">
-        <v>484.4236418782189</v>
+        <v>400.6823320653274</v>
       </c>
       <c r="F10" t="n">
-        <v>337.5336943803085</v>
+        <v>253.792384567417</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>253.792384567417</v>
       </c>
       <c r="H10" t="n">
         <v>235.9284171545819</v>
@@ -4962,7 +4962,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.4236418782189</v>
+        <v>698.7120650600563</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3027.596327402151</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3907.560977731605</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4302.335344088783</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5111,31 +5111,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5232,19 +5232,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="14">
@@ -5284,22 +5284,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>680.5797464134954</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>680.5797464134954</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>530.4631070011596</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>530.4631070011596</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>383.5731595032493</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>215.8703228779682</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5466,22 +5466,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1956.343466104704</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.093193329805</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>680.5797464134954</v>
       </c>
     </row>
     <row r="17">
@@ -5500,10 +5500,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5545,19 +5545,19 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
         <v>2760.816196754298</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5609,25 +5609,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.811212990069</v>
+        <v>492.7083461157081</v>
       </c>
       <c r="C19" t="n">
-        <v>612.8750300621621</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D19" t="n">
-        <v>462.7583906498263</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>314.8452970674332</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>167.9553495695228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5685,40 +5685,40 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598112</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518526</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952185</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104699</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.343466104704</v>
+        <v>1667.240599230343</v>
       </c>
       <c r="V19" t="n">
-        <v>1701.658977898817</v>
+        <v>1412.556111024456</v>
       </c>
       <c r="W19" t="n">
-        <v>1412.241807861856</v>
+        <v>1123.138940987495</v>
       </c>
       <c r="X19" t="n">
-        <v>1184.252256963839</v>
+        <v>895.1493900894779</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.4596778203087</v>
+        <v>674.3568109459478</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,67 +5737,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5861,16 +5861,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458018</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301116</v>
+        <v>222.9302503154551</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>222.9302503154551</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>222.9302503154551</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>222.9302503154551</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1288.206478295169</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W22" t="n">
-        <v>1288.206478295169</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X22" t="n">
-        <v>1288.206478295169</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y22" t="n">
-        <v>1288.206478295169</v>
+        <v>391.8664332433621</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5989,46 +5989,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6074,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858347</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6232,46 +6232,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.5269503710301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
         <v>95.56103444839442</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1737.059203485665</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1482.374715279778</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1192.957545242817</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>964.9679943448</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.1754152012699</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6442,16 +6442,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6463,46 +6463,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6533,19 +6533,19 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>725.3071882816349</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862231</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.746393431757</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1644.746393431757</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1390.06190522587</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1100.644735188909</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>872.6551842908921</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>725.3071882816349</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6718,19 +6718,19 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6797,16 +6797,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3603.519469305087</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C34" t="n">
-        <v>3434.58328637718</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D34" t="n">
-        <v>3379.775168468997</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E34" t="n">
-        <v>3231.862074886603</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F34" t="n">
-        <v>3084.972127388693</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763412</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763412</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>4778.051722419721</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V34" t="n">
-        <v>4523.367234213834</v>
+        <v>1591.728233325219</v>
       </c>
       <c r="W34" t="n">
-        <v>4233.950064176874</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="X34" t="n">
-        <v>4005.960513278857</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="Y34" t="n">
-        <v>3785.167934135327</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>1770.231306037953</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>492.7083461157126</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C37" t="n">
-        <v>323.7721631878057</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D37" t="n">
-        <v>323.7721631878057</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>175.8590696054126</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>175.8590696054126</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>175.8590696054126</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>175.8590696054126</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U37" t="n">
-        <v>1667.240599230347</v>
+        <v>1756.848946528553</v>
       </c>
       <c r="V37" t="n">
-        <v>1412.556111024461</v>
+        <v>1502.164458322666</v>
       </c>
       <c r="W37" t="n">
-        <v>1123.1389409875</v>
+        <v>1212.747288285705</v>
       </c>
       <c r="X37" t="n">
-        <v>895.1493900894825</v>
+        <v>984.7577373876879</v>
       </c>
       <c r="Y37" t="n">
-        <v>674.3568109459524</v>
+        <v>763.9651582441578</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7259,7 +7259,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7271,16 +7271,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>567.9454261809101</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>399.0092432530032</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>399.0092432530032</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>399.0092432530032</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>399.0092432530032</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1453.060509258584</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1198.376021052697</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1198.376021052697</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>970.38647015468</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>749.5938910111498</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3858.203957510973</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C43" t="n">
-        <v>3689.267774583067</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>3539.151135170731</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>3391.238041588338</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>3244.348094090427</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>3076.645257465146</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>2930.428070683004</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>4778.051722419721</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U43" t="n">
-        <v>4778.051722419721</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V43" t="n">
-        <v>4778.051722419721</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W43" t="n">
-        <v>4488.63455238276</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X43" t="n">
-        <v>4260.645001484743</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y43" t="n">
-        <v>4039.852422341213</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="44">
@@ -7636,49 +7636,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X46" t="n">
-        <v>391.866433243363</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.0738540998329</v>
+        <v>901.3723255570255</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>170.1140909277309</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>29.61882225792226</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>344.702583647683</v>
       </c>
       <c r="N35" t="n">
-        <v>288.0478149561031</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10834,19 +10834,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>123.4719563470469</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>91.26811680410418</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>25.64881936904273</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.92599321748773</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>94.3554362891111</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23946,7 +23946,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.96353914315821</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>39.93028455063812</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,13 +24651,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>72.71013730293024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>94.35543628911094</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>177.3804010777506</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>16.85736560439007</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>278.4812891566655</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>10.36709645678633</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>83.32522828944178</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>159.6457400831803</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>49.85054907335515</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834844.3571857275</v>
+        <v>834844.3571857276</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834844.3571857275</v>
+        <v>834844.3571857272</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>834844.3571857276</v>
+        <v>834844.3571857275</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>834844.3571857276</v>
+        <v>834844.3571857275</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834844.3571857276</v>
+        <v>834844.3571857275</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>834844.3571857275</v>
+        <v>834844.3571857276</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516045</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="F2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="G2" t="n">
+        <v>575768.5909861255</v>
+      </c>
+      <c r="H2" t="n">
+        <v>575768.5909861259</v>
+      </c>
+      <c r="I2" t="n">
         <v>575768.5909861258</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>575768.5909861258</v>
       </c>
-      <c r="G2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="H2" t="n">
-        <v>575768.5909861256</v>
-      </c>
-      <c r="I2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>575768.590986126</v>
       </c>
-      <c r="K2" t="n">
-        <v>575768.5909861256</v>
-      </c>
       <c r="L2" t="n">
-        <v>575768.5909861256</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="M2" t="n">
         <v>575768.5909861259</v>
@@ -26352,10 +26352,10 @@
         <v>575768.5909861259</v>
       </c>
       <c r="O2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="P2" t="n">
         <v>575768.5909861258</v>
-      </c>
-      <c r="P2" t="n">
-        <v>575768.5909861259</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709184</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21619.60799709183</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709183</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="J4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="I4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709184</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="M4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="L5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-269778.2705187792</v>
+        <v>-269778.2705187788</v>
       </c>
       <c r="C6" t="n">
-        <v>320189.6086957656</v>
+        <v>320189.6086957655</v>
       </c>
       <c r="D6" t="n">
-        <v>320189.6086957655</v>
+        <v>320189.6086957658</v>
       </c>
       <c r="E6" t="n">
-        <v>-269611.9492580865</v>
+        <v>-270283.904160344</v>
       </c>
       <c r="F6" t="n">
-        <v>457765.4647353202</v>
+        <v>457093.5098330622</v>
       </c>
       <c r="G6" t="n">
-        <v>457765.4647353204</v>
+        <v>457093.5098330624</v>
       </c>
       <c r="H6" t="n">
-        <v>457765.4647353201</v>
+        <v>457093.5098330625</v>
       </c>
       <c r="I6" t="n">
-        <v>457765.4647353204</v>
+        <v>457093.5098330622</v>
       </c>
       <c r="J6" t="n">
-        <v>281342.2455427275</v>
+        <v>280670.2906404693</v>
       </c>
       <c r="K6" t="n">
-        <v>457765.4647353203</v>
+        <v>457093.5098330625</v>
       </c>
       <c r="L6" t="n">
-        <v>457765.46473532</v>
+        <v>457093.5098330624</v>
       </c>
       <c r="M6" t="n">
-        <v>328123.1498963755</v>
+        <v>327451.1949941177</v>
       </c>
       <c r="N6" t="n">
-        <v>457765.4647353204</v>
+        <v>457093.5098330625</v>
       </c>
       <c r="O6" t="n">
-        <v>457765.4647353202</v>
+        <v>457093.5098330622</v>
       </c>
       <c r="P6" t="n">
-        <v>457765.4647353204</v>
+        <v>457093.5098330624</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>77.12412542216066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>53.30008710312387</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>101.8393936825974</v>
+        <v>3.115350019202168</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>69.3320101567183</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>159.2708804221577</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>120.5017245654296</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>112.4847882031431</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>210.1687297073898</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>250.8853366822697</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,19 +28016,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>66.72057780558157</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>138.4855611030883</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-3.796617681797508e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32095,7 +32095,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>420.9083957314504</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35661,7 +35661,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35670,7 +35670,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35886,28 +35886,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502542</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36053,16 +36053,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675363</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36618,7 +36618,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37308,19 +37308,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>883.6236994779098</v>
       </c>
       <c r="N35" t="n">
-        <v>840.3496503690146</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37554,19 +37554,19 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>631.524957235266</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2286273.699105505</v>
+        <v>2289679.190229954</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>15.14483238681376</v>
+        <v>163.9206648785249</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>203.6154403134052</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,19 +1302,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>17.68532773870681</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710083</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634817</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>44.02456848014742</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>119.1061955452781</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>101.3208278811401</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>39.77808571121608</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>126.0955237083901</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>18.26879610204029</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>84.69473660442847</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V34" t="n">
-        <v>74.75724224607742</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,13 +3271,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3441,7 +3441,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>7.730549048947416</v>
+        <v>52.74455946606868</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3559,7 +3559,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>126.5660981224325</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>98.7649239448572</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>18.93482921065027</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4330,10 +4330,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4342,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>847.8148076117928</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2681.851280526491</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="T5" t="n">
-        <v>2681.851280526491</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="U5" t="n">
-        <v>2681.851280526491</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V5" t="n">
-        <v>2350.788393182921</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W5" t="n">
-        <v>1998.019737912806</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.553979651726</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y5" t="n">
-        <v>1234.414647675915</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.083492693021</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.12097575261</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1209.855277145859</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>824.0670245476149</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>413.0811197580073</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2323.683332757143</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600563</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600563</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>548.5954256477205</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>400.6823320653274</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>253.792384567417</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>253.792384567417</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5026,19 +5026,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
@@ -5047,46 +5047,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5126,7 +5126,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,16 +5138,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C13" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D13" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E13" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F13" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5232,19 +5232,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5284,19 +5284,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>3573.86000758939</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4287.215095036336</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5314,7 +5314,7 @@
         <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.42128699119</v>
@@ -5323,7 +5323,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5421,16 +5421,16 @@
         <v>530.4631070011596</v>
       </c>
       <c r="E16" t="n">
-        <v>530.4631070011596</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F16" t="n">
-        <v>383.5731595032493</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G16" t="n">
-        <v>215.8703228779682</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5554,7 +5554,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5609,25 +5609,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>492.7083461157081</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C19" t="n">
-        <v>390.3640755286979</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5685,40 +5685,40 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598112</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104699</v>
+        <v>1916.16358154792</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104699</v>
+        <v>1694.396966117446</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230343</v>
+        <v>1405.294099243089</v>
       </c>
       <c r="V19" t="n">
-        <v>1412.556111024456</v>
+        <v>1150.609611037203</v>
       </c>
       <c r="W19" t="n">
-        <v>1123.138940987495</v>
+        <v>861.192441000242</v>
       </c>
       <c r="X19" t="n">
-        <v>895.1493900894779</v>
+        <v>633.2028901022246</v>
       </c>
       <c r="Y19" t="n">
-        <v>674.3568109459478</v>
+        <v>412.4103109586945</v>
       </c>
     </row>
     <row r="20">
@@ -5731,40 +5731,40 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622689</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5779,25 +5779,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,25 +5831,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>391.8664332433621</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C22" t="n">
-        <v>222.9302503154551</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="D22" t="n">
-        <v>222.9302503154551</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="E22" t="n">
-        <v>222.9302503154551</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="F22" t="n">
-        <v>222.9302503154551</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>909.27315417834</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413794</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433621</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>391.8664332433621</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="23">
@@ -5995,19 +5995,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188665</v>
@@ -6071,10 +6071,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6214,22 +6214,22 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L26" t="n">
         <v>1482.778354750621</v>
@@ -6238,40 +6238,40 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075805</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,7 +6335,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447819</v>
@@ -6344,13 +6344,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>260.904311342305</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>260.904311342305</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>260.904311342305</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6390,13 +6390,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O28" t="n">
         <v>1646.12566951853</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>260.904311342305</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6460,55 +6460,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6554,28 +6554,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,13 +6645,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
         <v>1270.093287563029</v>
@@ -6700,28 +6700,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6800,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6809,22 +6809,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1591.728233325219</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>1302.311063288258</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>1302.311063288258</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1302.311063288258</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
@@ -6937,28 +6937,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294612</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353394</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -7019,10 +7019,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>582.3166934139181</v>
+        <v>728.5338801960603</v>
       </c>
       <c r="C37" t="n">
-        <v>413.3805104860112</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D37" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E37" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839441</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1756.848946528553</v>
+        <v>1903.066133310695</v>
       </c>
       <c r="V37" t="n">
-        <v>1502.164458322666</v>
+        <v>1648.381645104808</v>
       </c>
       <c r="W37" t="n">
-        <v>1212.747288285705</v>
+        <v>1358.964475067847</v>
       </c>
       <c r="X37" t="n">
-        <v>984.7577373876879</v>
+        <v>1130.97492416983</v>
       </c>
       <c r="Y37" t="n">
-        <v>763.9651582441578</v>
+        <v>910.1823450263</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839441</v>
@@ -7177,19 +7177,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2628.734306600803</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N38" t="n">
-        <v>3175.513123659585</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O38" t="n">
-        <v>3800.722831322499</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679677</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839441</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7411,28 +7411,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>818.2062848686767</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1682.725100522031</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
         <v>4778.05172241972</v>
@@ -7493,10 +7493,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839441</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1606.732307116217</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1352.04781891033</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1062.630648873369</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>834.6410979753522</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>613.848518831822</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
@@ -7663,22 +7663,22 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604874</v>
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>901.3723255570255</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C46" t="n">
-        <v>901.3723255570255</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D46" t="n">
-        <v>801.6097761177758</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E46" t="n">
-        <v>653.6966825353827</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>901.3723255570255</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>901.3723255570255</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8932,22 +8932,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>185.3870697685868</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>29.61882225792226</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9643,22 +9643,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>23.80814351663537</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>67.53663776704263</v>
+        <v>67.53663776704059</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>201.9664098701116</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>344.702583647683</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>344.702583647683</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>123.4719563470469</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>201.9664098701115</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>91.26811680410418</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>102.4093941664217</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>25.64881936904273</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>65.92599321748773</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>149.9909396202258</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>39.93028455063812</v>
+        <v>52.51544363394669</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445289</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V34" t="n">
-        <v>177.3804010777506</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,13 +25362,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>278.4812891566655</v>
+        <v>233.4672787395442</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,13 +25836,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>159.6457400831803</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>49.85054907335515</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>147.090979048378</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834844.3571857276</v>
+        <v>834844.3571857275</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834844.3571857272</v>
+        <v>834844.3571857275</v>
       </c>
     </row>
     <row r="8">
@@ -26316,46 +26316,46 @@
         <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516048</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516047</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516049</v>
-      </c>
       <c r="E2" t="n">
-        <v>575768.590986126</v>
+        <v>575768.5909861259</v>
       </c>
       <c r="F2" t="n">
-        <v>575768.5909861256</v>
+        <v>575768.5909861259</v>
       </c>
       <c r="G2" t="n">
-        <v>575768.5909861255</v>
+        <v>575768.5909861258</v>
       </c>
       <c r="H2" t="n">
         <v>575768.5909861259</v>
       </c>
       <c r="I2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="J2" t="n">
+        <v>575768.5909861256</v>
+      </c>
+      <c r="K2" t="n">
         <v>575768.5909861258</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>575768.590986126</v>
+      </c>
+      <c r="M2" t="n">
+        <v>575768.5909861255</v>
+      </c>
+      <c r="N2" t="n">
         <v>575768.5909861258</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>575768.590986126</v>
       </c>
-      <c r="L2" t="n">
-        <v>575768.5909861258</v>
-      </c>
-      <c r="M2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="N2" t="n">
-        <v>575768.5909861259</v>
-      </c>
-      <c r="O2" t="n">
-        <v>575768.5909861256</v>
-      </c>
       <c r="P2" t="n">
-        <v>575768.5909861258</v>
+        <v>575768.590986126</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="M4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-269778.2705187788</v>
       </c>
       <c r="C6" t="n">
+        <v>320189.6086957656</v>
+      </c>
+      <c r="D6" t="n">
         <v>320189.6086957655</v>
       </c>
-      <c r="D6" t="n">
-        <v>320189.6086957658</v>
-      </c>
       <c r="E6" t="n">
-        <v>-270283.904160344</v>
+        <v>-269679.144748312</v>
       </c>
       <c r="F6" t="n">
-        <v>457093.5098330622</v>
+        <v>457698.2692450946</v>
       </c>
       <c r="G6" t="n">
-        <v>457093.5098330624</v>
+        <v>457698.2692450944</v>
       </c>
       <c r="H6" t="n">
-        <v>457093.5098330625</v>
+        <v>457698.2692450946</v>
       </c>
       <c r="I6" t="n">
-        <v>457093.5098330622</v>
+        <v>457698.2692450947</v>
       </c>
       <c r="J6" t="n">
-        <v>280670.2906404693</v>
+        <v>281275.0500525013</v>
       </c>
       <c r="K6" t="n">
-        <v>457093.5098330625</v>
+        <v>457698.2692450946</v>
       </c>
       <c r="L6" t="n">
-        <v>457093.5098330624</v>
+        <v>457698.2692450947</v>
       </c>
       <c r="M6" t="n">
-        <v>327451.1949941177</v>
+        <v>328055.9544061496</v>
       </c>
       <c r="N6" t="n">
-        <v>457093.5098330625</v>
+        <v>457698.2692450945</v>
       </c>
       <c r="O6" t="n">
-        <v>457093.5098330622</v>
+        <v>457698.2692450947</v>
       </c>
       <c r="P6" t="n">
-        <v>457093.5098330624</v>
+        <v>457698.2692450947</v>
       </c>
     </row>
   </sheetData>
@@ -26761,7 +26761,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26980,10 +26980,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>3.115350019202168</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,13 +27666,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>159.2708804221577</v>
+        <v>10.49504793044665</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>210.1687297073898</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,19 +28022,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>138.4855611030883</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-3.796617681797508e-12</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -32095,7 +32095,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33739,13 +33739,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35652,22 +35652,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>436.1813745723063</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35743,7 +35743,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35886,28 +35886,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>485.2089366502542</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36053,16 +36053,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675363</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,22 +36363,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>562.7292593468621</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O26" t="n">
-        <v>575.5896386552618</v>
+        <v>575.5896386552599</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>740.8875257003384</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>883.6236994779098</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37545,22 +37545,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>883.6236994779098</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>631.524957235266</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>539.157696425512</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
